--- a/fileExcel/2022-05-13.xlsx
+++ b/fileExcel/2022-05-13.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>code</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>Nhà xuất bản TP.HCM 2</t>
+  </si>
+  <si>
+    <t>NXB6</t>
+  </si>
+  <si>
+    <t>Nhà xuất bản Khoa Học</t>
   </si>
 </sst>
 </file>
@@ -112,7 +118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -158,6 +164,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
